--- a/docs/cronograma.xlsx
+++ b/docs/cronograma.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E927F1E8-90A7-4774-9B05-2621E909BE2D}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A1C5E41-BA2A-45AA-84E0-04103E6DDC6D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
   <si>
     <t>Fase 1: Planejamento (01/06/2024 - 15/06/2024)</t>
   </si>
@@ -400,6 +412,76 @@
   </si>
   <si>
     <t>Desenvolvimento e Testes (4x)</t>
+  </si>
+  <si>
+    <t>Frontend - Funcionalidades</t>
+  </si>
+  <si>
+    <t>Inserir CPF antes de começar o chat</t>
+  </si>
+  <si>
+    <t>Caíque Filipini</t>
+  </si>
+  <si>
+    <t>Escala de notas</t>
+  </si>
+  <si>
+    <t>- Ajustar escala de notas</t>
+  </si>
+  <si>
+    <t>Função "Novo Chat"</t>
+  </si>
+  <si>
+    <t>Salvar e mostrar histórico de chats</t>
+  </si>
+  <si>
+    <t>Salvar chats no banco de dados</t>
+  </si>
+  <si>
+    <t>Função "Pesquisar Chat"</t>
+  </si>
+  <si>
+    <t>- Data e hora da mensagem</t>
+  </si>
+  <si>
+    <t>Exibição do Chat</t>
+  </si>
+  <si>
+    <t>Inserir atividades já feitas</t>
+  </si>
+  <si>
+    <t>Melhoria do código</t>
+  </si>
+  <si>
+    <t>- Colocar em funções
+- Definir e ajustar código em pipeline
+- Solicitar melhoria pelo ChatGPT</t>
+  </si>
+  <si>
+    <t>- Inserir CPF
+- Validar CPF
+- Sumir campo de digitação após inserir CPF válido
+- Aparecer função de chat somente após inserir CPF válido
+- Corrigir CPF</t>
+  </si>
+  <si>
+    <t>Função de carregar informações relevantes</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>- Carregar Json com informações relevantes sobre o cliente</t>
+  </si>
+  <si>
+    <t>Função de adicionar "json" com mensagens padrão sobre o cliente (valor da dívida, etc), sobre mensagens iniciais (ex: assunto que deseja tratar).
+Outra opção é buscar essas informações em algum lugar. Ex: motor, API C2, etc.
+Ou uma combinação dos dois. Ex: tenta buscar na base, se não conseguir, abre um campo para o usuário inserir as informações manualmente.
+Cuidado: As informações do cliente podem ficar defasadas/desatualizadas. Verificar como lidar com isso.</t>
+  </si>
+  <si>
+    <t>- Formato:
+&gt; Data: 07/06/2024 - CPF: 123.456.789-10 - Assunto: Negociação</t>
   </si>
 </sst>
 </file>
@@ -440,12 +522,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -480,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -521,11 +609,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -533,16 +627,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,10 +1002,10 @@
       <c r="D7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D8"/>
@@ -1072,89 +1176,89 @@
       </c>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="5">
         <v>45452</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="5">
         <v>45453</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16">
+      <c r="B21" s="4">
         <v>6</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="5">
         <v>45454</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="5">
         <v>45455</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19">
+      <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="16">
         <v>45456</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="16">
         <v>45458</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="14">
         <v>6</v>
       </c>
     </row>
@@ -1256,31 +1360,31 @@
       </c>
     </row>
     <row r="30" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19">
+      <c r="B30" s="14">
         <v>10</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="16">
         <v>45469</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="16">
         <v>45473</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="14">
         <v>9</v>
       </c>
     </row>
@@ -1411,31 +1515,31 @@
       </c>
     </row>
     <row r="39" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="19">
+      <c r="B39" s="14">
         <v>14</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="16">
         <v>45499</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="16">
         <v>45504</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="14">
         <v>13</v>
       </c>
     </row>
@@ -1553,31 +1657,31 @@
       </c>
     </row>
     <row r="49" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="19">
+      <c r="B49" s="14">
         <v>17</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="16">
         <v>45520</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="16">
         <v>45524</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1674,31 +1778,31 @@
       </c>
     </row>
     <row r="55" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="19">
+      <c r="B55" s="14">
         <v>20</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="16">
         <v>45541</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="16">
         <v>45545</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="14">
         <v>19</v>
       </c>
     </row>
@@ -1795,31 +1899,31 @@
       </c>
     </row>
     <row r="61" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="19">
+      <c r="B61" s="14">
         <v>23</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="16">
         <v>45561</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="16">
         <v>45565</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I61" s="19" t="s">
+      <c r="I61" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="14">
         <v>22</v>
       </c>
     </row>
@@ -1945,31 +2049,31 @@
       </c>
     </row>
     <row r="68" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="19">
+      <c r="B68" s="14">
         <v>27</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="16">
         <v>45586</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="16">
         <v>45595</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J68" s="19">
+      <c r="J68" s="14">
         <v>26</v>
       </c>
     </row>
@@ -2071,31 +2175,31 @@
       </c>
     </row>
     <row r="77" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="19">
+      <c r="B77" s="14">
         <v>30</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="16">
         <v>45607</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="16">
         <v>45611</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H77" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="19" t="s">
+      <c r="I77" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J77" s="14">
         <v>29</v>
       </c>
     </row>
@@ -2197,44 +2301,44 @@
       </c>
     </row>
     <row r="86" spans="2:12" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="19">
+      <c r="B86" s="14">
         <v>33</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="16">
         <v>45622</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="16">
         <v>45626</v>
       </c>
-      <c r="H86" s="19" t="s">
+      <c r="H86" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="19" t="s">
+      <c r="I86" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J86" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D87" s="19"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
     </row>
     <row r="89" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
@@ -2276,35 +2380,388 @@
       </c>
     </row>
     <row r="93" spans="2:12" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="19">
+      <c r="B93" s="14">
         <v>34</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="16">
         <v>45627</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="16">
         <v>45627</v>
       </c>
-      <c r="H93" s="19" t="s">
+      <c r="H93" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I93" s="19" t="s">
+      <c r="I93" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J93" s="14">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB6389-9059-4CB4-AEE0-47D1FAF8A374}">
+  <dimension ref="B2:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" customWidth="1"/>
+    <col min="5" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="2:10" s="3" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45450</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45450</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G7-F7+1</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" s="3" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="24">
+        <v>45445</v>
+      </c>
+      <c r="G9" s="24">
+        <v>45446</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="24">
+        <v>45447</v>
+      </c>
+      <c r="G10" s="24">
+        <v>45449</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="24">
+        <v>45450</v>
+      </c>
+      <c r="G11" s="24">
+        <v>45451</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="3" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="24">
+        <v>45452</v>
+      </c>
+      <c r="G12" s="24">
+        <v>45453</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="24">
+        <v>45454</v>
+      </c>
+      <c r="G13" s="24">
+        <v>45455</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>7</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="26">
+        <v>45456</v>
+      </c>
+      <c r="G14" s="26">
+        <v>45458</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <v>7</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="26">
+        <v>45456</v>
+      </c>
+      <c r="G15" s="26">
+        <v>45458</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/cronograma.xlsx
+++ b/docs/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A1C5E41-BA2A-45AA-84E0-04103E6DDC6D}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BAAE077-42CD-4933-BFBE-B21ECAB74D8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="148">
   <si>
     <t>Fase 1: Planejamento (01/06/2024 - 15/06/2024)</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Escala de notas</t>
   </si>
   <si>
-    <t>- Ajustar escala de notas</t>
-  </si>
-  <si>
     <t>Função "Novo Chat"</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
   </si>
   <si>
     <t>Função "Pesquisar Chat"</t>
-  </si>
-  <si>
-    <t>- Data e hora da mensagem</t>
   </si>
   <si>
     <t>Exibição do Chat</t>
@@ -456,39 +450,96 @@
     <t>- Colocar em funções
 - Definir e ajustar código em pipeline
 - Solicitar melhoria pelo ChatGPT</t>
+  </si>
+  <si>
+    <t>Função de carregar informações relevantes</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>- Carregar Json com informações relevantes sobre o cliente</t>
+  </si>
+  <si>
+    <t>- Formato:
+&gt; Data: 07/06/2024 - CPF: 123.456.789-10 - Assunto: Negociação</t>
+  </si>
+  <si>
+    <t>Inserir assunto da conversa após inserir o CPF</t>
+  </si>
+  <si>
+    <t>- Lista de assuntos válidos
+- Assunto deve ser inserido obrigatoriamente</t>
   </si>
   <si>
     <t>- Inserir CPF
 - Validar CPF
 - Sumir campo de digitação após inserir CPF válido
 - Aparecer função de chat somente após inserir CPF válido
-- Corrigir CPF</t>
-  </si>
-  <si>
-    <t>Função de carregar informações relevantes</t>
-  </si>
-  <si>
-    <t>Prompt</t>
-  </si>
-  <si>
-    <t>- Carregar Json com informações relevantes sobre o cliente</t>
-  </si>
-  <si>
-    <t>Função de adicionar "json" com mensagens padrão sobre o cliente (valor da dívida, etc), sobre mensagens iniciais (ex: assunto que deseja tratar).
+- Escrever também data e hora de início do chat
+- Corrigir CPF (?)</t>
+  </si>
+  <si>
+    <t>- Ajustar escala de notas
+- Inserir descrições das notas</t>
+  </si>
+  <si>
+    <t>- Fluxo de trabalho: Texto Cliente &gt; Sugestão &gt; Feedback &gt; Adicionar ao histórico
+- Data e hora da mensagem
+- Somente exibir a função de chat após o usuário inserir CPF e assunto (e, se for o caso, informações relevantes do cliente)</t>
+  </si>
+  <si>
+    <t>Em desenvolvimento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Função de adicionar "json" com mensagens padrão sobre o cliente (valor da dívida, etc), sobre mensagens iniciais (ex: assunto que deseja tratar).
 Outra opção é buscar essas informações em algum lugar. Ex: motor, API C2, etc.
-Ou uma combinação dos dois. Ex: tenta buscar na base, se não conseguir, abre um campo para o usuário inserir as informações manualmente.
-Cuidado: As informações do cliente podem ficar defasadas/desatualizadas. Verificar como lidar com isso.</t>
-  </si>
-  <si>
-    <t>- Formato:
-&gt; Data: 07/06/2024 - CPF: 123.456.789-10 - Assunto: Negociação</t>
+Ou uma combinação dos dois. Ex: tenta buscar na base, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se não conseguir, abre um campo para o usuário inserir as informações manualmente.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cuidado: As informações do cliente podem ficar defasadas/desatualizadas. Verificar como lidar com isso.
+A informação deve ser atualizada diariamente? Realtime?
+Se for atualizada, tem como (ou faz sentido) ver o que foi atualizado? As informações anteriores?
+Essa atividade está muito relacionada ao prompt e também a como vamos ter aceeso às informações do cliente. Se é via BD, API, Excel, etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quando for pesquisar, cuidado com o zero na frente.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +568,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -568,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,20 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -643,10 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -931,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB6389-9059-4CB4-AEE0-47D1FAF8A374}">
   <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,7 +2480,9 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
     <col min="4" max="4" width="58.33203125" customWidth="1"/>
-    <col min="5" max="10" width="15" customWidth="1"/>
+    <col min="5" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
@@ -2465,39 +2520,39 @@
       </c>
     </row>
     <row r="4" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:10" s="3" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
@@ -2507,7 +2562,7 @@
         <v>126</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>127</v>
@@ -2516,10 +2571,10 @@
         <v>45450</v>
       </c>
       <c r="G7" s="5">
+        <f>F7+H7-1</f>
         <v>45450</v>
       </c>
       <c r="H7" s="4">
-        <f>G7-F7+1</f>
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -2527,81 +2582,108 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" s="3" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+    <row r="8" spans="2:10" s="3" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="5">
+        <f>G7+1</f>
+        <v>45451</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8+H8-1</f>
+        <v>45451</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="3" customFormat="1" ht="404.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="24">
-        <v>45445</v>
-      </c>
-      <c r="G9" s="24">
-        <v>45446</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="25">
+      <c r="F9" s="5">
+        <f>G8+1</f>
+        <v>45452</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9+H9-1</f>
+        <v>45452</v>
+      </c>
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="4">
+        <f>B8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="3" customFormat="1" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="24">
-        <v>45447</v>
-      </c>
-      <c r="G10" s="24">
-        <v>45449</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="25" t="s">
+      <c r="F10" s="5">
+        <f>G9+1</f>
+        <v>45453</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10+H10-1</f>
+        <v>45454</v>
+      </c>
+      <c r="H10" s="22">
+        <v>2</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="22">
+        <f>B9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>144</v>
@@ -2609,157 +2691,176 @@
       <c r="E11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="24">
-        <v>45450</v>
-      </c>
-      <c r="G11" s="24">
-        <v>45451</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="F11" s="5">
+        <f>G10+1</f>
+        <v>45455</v>
+      </c>
+      <c r="G11" s="5">
+        <f>F11+H11-1</f>
+        <v>45455</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="25">
-        <v>3</v>
+      <c r="J11" s="22">
+        <f>B10</f>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="3" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>45452</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <v>45453</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
+        <v>45445</v>
+      </c>
+      <c r="G13" s="20">
+        <v>45446</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="20">
+        <v>45450</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45451</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="20">
         <v>45454</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G15" s="20">
         <v>45455</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J15" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18">
-        <v>7</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="16" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D16" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F16" s="20">
         <v>45456</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G16" s="20">
         <v>45458</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J16" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
-        <v>7</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="21" t="s">
+    <row r="17" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="26">
-        <v>45456</v>
-      </c>
-      <c r="G15" s="26">
-        <v>45458</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/docs/cronograma.xlsx
+++ b/docs/cronograma.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BAAE077-42CD-4933-BFBE-B21ECAB74D8F}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14677775-9709-458A-ACEC-AD7A02E6BB3B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cronograma Frontend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -634,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -697,9 +697,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,7 +982,7 @@
   <dimension ref="B2:L93"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB6389-9059-4CB4-AEE0-47D1FAF8A374}">
   <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2667,13 +2664,13 @@
         <f>F10+H10-1</f>
         <v>45454</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="4">
         <f>B9</f>
         <v>3</v>
       </c>
@@ -2699,13 +2696,13 @@
         <f>F11+H11-1</f>
         <v>45455</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="4">
         <f>B10</f>
         <v>4</v>
       </c>

--- a/docs/cronograma.xlsx
+++ b/docs/cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14677775-9709-458A-ACEC-AD7A02E6BB3B}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48C8F61-7756-4062-80BB-E7B78D9C31FC}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="151">
   <si>
     <t>Fase 1: Planejamento (01/06/2024 - 15/06/2024)</t>
   </si>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>Função "Novo Chat"</t>
-  </si>
-  <si>
-    <t>Salvar e mostrar histórico de chats</t>
   </si>
   <si>
     <t>Salvar chats no banco de dados</t>
@@ -452,17 +449,10 @@
 - Solicitar melhoria pelo ChatGPT</t>
   </si>
   <si>
-    <t>Função de carregar informações relevantes</t>
-  </si>
-  <si>
     <t>Prompt</t>
   </si>
   <si>
     <t>- Carregar Json com informações relevantes sobre o cliente</t>
-  </si>
-  <si>
-    <t>- Formato:
-&gt; Data: 07/06/2024 - CPF: 123.456.789-10 - Assunto: Negociação</t>
   </si>
   <si>
     <t>Inserir assunto da conversa após inserir o CPF</t>
@@ -480,46 +470,27 @@
 - Corrigir CPF (?)</t>
   </si>
   <si>
-    <t>- Ajustar escala de notas
-- Inserir descrições das notas</t>
-  </si>
-  <si>
-    <t>- Fluxo de trabalho: Texto Cliente &gt; Sugestão &gt; Feedback &gt; Adicionar ao histórico
-- Data e hora da mensagem
-- Somente exibir a função de chat após o usuário inserir CPF e assunto (e, se for o caso, informações relevantes do cliente)</t>
-  </si>
-  <si>
-    <t>Em desenvolvimento</t>
+    <t>- Salvar registros do cliente e das conversas
+- Considerar que o mesmo cliente pode falar sobre mais de um assunto.
+- Considerar que o mesmo cliente pode falar sobre o mesmo assunto em situações diferentes
+- Armazenar em bd No SQL (Mongo DB)
+- Pois não existe formato padrão ou tamanho fixo
+- Armazenamento tabular (SQL) não compensa nesse caso</t>
+  </si>
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>- Criar função de prompt
+- Conectar função de prompt com o front</t>
+  </si>
+  <si>
+    <t>Função de carregar e imprimir informações relevantes (cliente e oferta)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Função de adicionar "json" com mensagens padrão sobre o cliente (valor da dívida, etc), sobre mensagens iniciais (ex: assunto que deseja tratar).
-Outra opção é buscar essas informações em algum lugar. Ex: motor, API C2, etc.
-Ou uma combinação dos dois. Ex: tenta buscar na base, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se não conseguir, abre um campo para o usuário inserir as informações manualmente.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Cuidado: As informações do cliente podem ficar defasadas/desatualizadas. Verificar como lidar com isso.
-A informação deve ser atualizada diariamente? Realtime?
-Se for atualizada, tem como (ou faz sentido) ver o que foi atualizado? As informações anteriores?
-Essa atividade está muito relacionada ao prompt e também a como vamos ter aceeso às informações do cliente. Se é via BD, API, Excel, etc.
+      <t xml:space="preserve">- Ajustar escala de notas
+- Inserir descrições das notas
 </t>
     </r>
     <r>
@@ -531,8 +502,142 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Quando for pesquisar, cuidado com o zero na frente.</t>
+      <t>- Quais ações o operador deve tomar para cada nota (exemplo: não faz sentido dar nota 5 e alterar a mensagem, ou dar nota 1 e mandar a mesma mensagem sugerida). Tem que haver coerência.
+- Criei uma recomendação de ação para cada nota
+- Ver se faz sentido colocar essa recomendação para o operador</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Fluxo de trabalho: Texto Cliente &gt; Sugestão &gt; Feedback &gt; Adicionar ao histórico
+- Data e hora da mensagem
+- Somente exibir a função de chat após o usuário inserir CPF e assunto (e, se for o caso, informações relevantes do cliente)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Se o cliente não for encontrado na base de clientes, informar que não foi possível encontrar o cliente e para o operador seguir o atendimento sem auxílio da IA (importante salvar esse cara para entendermos depois o motivo de não estar na base).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Função de adicionar "json" com mensagens padrão sobre o cliente (valor da dívida, etc), sobre mensagens iniciais (ex: assunto que deseja tratar).
+Outra opção é buscar essas informações em algum lugar. Ex: motor, API C2, etc.
+Ou uma combinação dos dois. Ex: tenta buscar na base, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se não conseguir, abre um campo para o usuário inserir as informações manualmente. ATUALIZAÇÃO: Isso não pode acontecer. Pois se não achar o cliente, como o bot vai fazer a negociação? Como vai saber descontos, prazo limite, etc. O operador teria que colocar muitas informações manualmente. A melhor coisa nesse momento é não habilitar essa opção e entender o porquê de o cliente não ter sido achado na base.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cuidado: As informações do cliente podem ficar defasadas/desatualizadas. Verificar como lidar com isso. A informação deve ser atualizada diariamente? Realtime? Se for atualizada, tem como (ou faz sentido) ver o que foi atualizado? As informações anteriores?
+Essa atividade está muito relacionada ao prompt e também a como vamos ter acesso às informações do cliente. Se é via BD, API, Excel, etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Não é necessário imprimir todas as informações lidas (talvez nenhuma), pois o operador terá acesso às informações do cliente no fluxo normal. Talvez imprimir apenas o relevante para ele validar se está batendo com o que ele enxerga. Se não coincidir, ele deve poder avisar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quando for pesquisar, cuidado com o zero na frente para não apontar como CPF inválido (adicionei um help no campo de inserir). Também atualizei as mensagens de erro para auxiliar o operador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Configuração Mongo DB - OK
+- Testar armazenar dados iniciais dos clientes no bd Mongo DB - OK
+- Testar função de adicionar/atualizar clientes/assuntos - OK
+- Testar função de inserir dados das mensagens - OK
+- Implementar funções no código principal - OK
+- Criar bases fictícias
+    &gt; Clientes - OK
+    &gt; Ofertas - OK
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    &gt; Conversas - Em criação (criar para 20 clientes. Os demais serão "novos chats")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Testar funcionalidades com as bases fictícias</t>
+    </r>
+  </si>
+  <si>
+    <t>- Formato:
+&gt; Data: 07/06/2024 - Cliente: João Carlos - CPF: 123.456.789-10 - Assunto: Negociação</t>
+  </si>
+  <si>
+    <t>Salvar e mostrar histórico de chats na sidebar</t>
   </si>
 </sst>
 </file>
@@ -573,6 +678,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -580,9 +686,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -634,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -699,6 +803,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,6 +821,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2465,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB6389-9059-4CB4-AEE0-47D1FAF8A374}">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,18 +2587,17 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" customWidth="1"/>
-    <col min="5" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" customWidth="1"/>
+    <col min="6" max="11" width="17.77734375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2495,28 +2605,31 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2526,8 +2639,9 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -2537,11 +2651,12 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -2550,314 +2665,325 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:10" s="3" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" s="3" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>45450</v>
       </c>
-      <c r="G7" s="5">
-        <f>F7+H7-1</f>
+      <c r="H7" s="5">
+        <f>G7+I7-1</f>
         <v>45450</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" s="3" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" s="3" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="5">
-        <f>G7+1</f>
+      <c r="G8" s="5">
+        <f>H7+1</f>
         <v>45451</v>
       </c>
-      <c r="G8" s="5">
-        <f>F8+H8-1</f>
+      <c r="H8" s="5">
+        <f>G8+I8-1</f>
         <v>45451</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <f>B7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="3" customFormat="1" ht="404.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="3" customFormat="1" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="5">
-        <f>G8+1</f>
+      <c r="G9" s="5">
+        <f>H8+1</f>
         <v>45452</v>
       </c>
-      <c r="G9" s="5">
-        <f>F9+H9-1</f>
+      <c r="H9" s="5">
+        <f>G9+I9-1</f>
         <v>45452</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4">
         <f>B8</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="3" customFormat="1" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="3" customFormat="1" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="5">
-        <f>G9+1</f>
+      <c r="G10" s="5">
+        <f>H9+1</f>
         <v>45453</v>
       </c>
-      <c r="G10" s="5">
-        <f>F10+H10-1</f>
+      <c r="H10" s="5">
+        <f>G10+I10-1</f>
         <v>45454</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <f>B9</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="3" customFormat="1" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="5">
-        <f>G10+1</f>
+      <c r="G11" s="5">
+        <f>H10+1</f>
         <v>45455</v>
       </c>
-      <c r="G11" s="5">
-        <f>F11+H11-1</f>
+      <c r="H11" s="5">
+        <f>G11+I11-1</f>
         <v>45455</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <f>B10</f>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="3" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" s="3" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="20">
+      <c r="G12" s="20">
         <v>45452</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="20">
         <v>45453</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="I12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="21">
+      <c r="K12" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="20">
+      <c r="G13" s="20">
         <v>45445</v>
       </c>
-      <c r="G13" s="20">
+      <c r="H13" s="20">
         <v>45446</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="J13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="21">
+      <c r="K13" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="20">
+      <c r="G14" s="20">
         <v>45450</v>
       </c>
-      <c r="G14" s="20">
+      <c r="H14" s="20">
         <v>45451</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="21">
+      <c r="K14" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="20">
+      <c r="G15" s="20">
         <v>45454</v>
       </c>
-      <c r="G15" s="20">
+      <c r="H15" s="20">
         <v>45455</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="I15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="21">
+      <c r="K15" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="20">
+      <c r="G16" s="20">
         <v>45456</v>
       </c>
-      <c r="G16" s="20">
+      <c r="H16" s="20">
         <v>45458</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="I16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="21">
+      <c r="K16" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/docs/cronograma.xlsx
+++ b/docs/cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="409" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48C8F61-7756-4062-80BB-E7B78D9C31FC}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="11_AD4D361C20488DEA4E38A0CADC1D51825BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6196513F-CDD3-44E1-8592-41FCD7690855}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38480" yWindow="1090" windowWidth="18820" windowHeight="15410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="155">
   <si>
     <t>Fase 1: Planejamento (01/06/2024 - 15/06/2024)</t>
   </si>
@@ -638,6 +638,20 @@
   </si>
   <si>
     <t>Salvar e mostrar histórico de chats na sidebar</t>
+  </si>
+  <si>
+    <t>- Testar usando imports em notebooks</t>
+  </si>
+  <si>
+    <t>Ajustar código para funcionar como app</t>
+  </si>
+  <si>
+    <t>- Organizar fluxo
+- Colocar código em classes
+- Funções independentes para lidarem tanto com novas mensagens quanto com histórico</t>
+  </si>
+  <si>
+    <t>Criar toy app</t>
   </si>
 </sst>
 </file>
@@ -821,10 +835,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2576,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB6389-9059-4CB4-AEE0-47D1FAF8A374}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2855,50 +2865,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+    <row r="13" spans="2:11" s="3" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="2:11" s="3" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="20">
-        <v>45445</v>
-      </c>
-      <c r="H13" s="20">
-        <v>45446</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G14" s="20">
-        <v>45450</v>
+        <v>45445</v>
       </c>
       <c r="H14" s="20">
-        <v>45451</v>
+        <v>45446</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>10</v>
@@ -2907,24 +2906,27 @@
         <v>22</v>
       </c>
       <c r="K14" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>150</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G15" s="20">
-        <v>45454</v>
+        <v>45450</v>
       </c>
       <c r="H15" s="20">
-        <v>45455</v>
+        <v>45451</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>10</v>
@@ -2933,57 +2935,88 @@
         <v>22</v>
       </c>
       <c r="K15" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G16" s="20">
-        <v>45456</v>
+        <v>45454</v>
       </c>
       <c r="H16" s="20">
-        <v>45458</v>
+        <v>45455</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="20">
+        <v>45456</v>
+      </c>
+      <c r="H17" s="20">
+        <v>45458</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="3" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
